--- a/medicine/Enfance/Komsomol/Komsomol.xlsx
+++ b/medicine/Enfance/Komsomol/Komsomol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Komsomol (en russe : комсомол) est le nom courant de l'organisation de la jeunesse communiste du Parti communiste de l'Union soviétique, fondée en 1918 et disparue en 1991, après la dislocation de l'URSS.
@@ -512,11 +524,13 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom officiel de l'organisation est « Union des jeunesses léninistes communistes » (en russe : Всесоюзный ленинский коммунистический союз молодёжи, Vsessoïouzny leninski kommounistitseski soïouz molodioji, VLKSM). Le nom « Komsomol » est un mot-valise constitué de Kommounisticheski soyuz molodioji (Коммунистический союз молодёжи). Après les pionniers soviétiques, les enfants y entraient à l'âge de 15 ans et pouvaient y rester jusqu'à leurs 28 ans[1].
-La structure de l'organisation était calquée sur celle du Parti communiste de l'Union soviétique (PCUS), dont elle constituait la principale source de recrutement[1]. Ainsi, le pourcentage de candidats à l'adhésion au parti et qui étaient issus du Komsomol était de 40 % en 1966 et 73 % pour la période 1976-1980[2].
-Au 1er janvier 1981, le Komsomol comptait 40 577 980 membres[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom officiel de l'organisation est « Union des jeunesses léninistes communistes » (en russe : Всесоюзный ленинский коммунистический союз молодёжи, Vsessoïouzny leninski kommounistitseski soïouz molodioji, VLKSM). Le nom « Komsomol » est un mot-valise constitué de Kommounisticheski soyuz molodioji (Коммунистический союз молодёжи). Après les pionniers soviétiques, les enfants y entraient à l'âge de 15 ans et pouvaient y rester jusqu'à leurs 28 ans.
+La structure de l'organisation était calquée sur celle du Parti communiste de l'Union soviétique (PCUS), dont elle constituait la principale source de recrutement. Ainsi, le pourcentage de candidats à l'adhésion au parti et qui étaient issus du Komsomol était de 40 % en 1966 et 73 % pour la période 1976-1980.
+Au 1er janvier 1981, le Komsomol comptait 40 577 980 membres.
 Les membres du Komsomol s'appelaient komsomolets (комсомолец) pour les garçons, et komsomolka (комсомолка) pour les filles.
 Le Komsomol a fait partie de la Fédération mondiale de la jeunesse démocratique fondée en 1945, dont le président fut Iouri Andropov (chef du Comité central du Parti communiste de l'Union soviétique, 1982-1984), successeur de Léonid Brejnev.
 </t>
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,7 +589,9 @@
           <t>Militants célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Garry Kasparov (élu au comité central en 1987),
 Mikhaïl Khodorkovski,
@@ -607,7 +625,9 @@
           <t>Le Komsomol au cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1926 : Les Enfants de la tempête (en russe : Дети бури), de Fridrikh Ermler et Edouard Ioganson.
 1932 : Komsomol ou le chant des héros, moyen métrage de Joris Ivens (50 minutes)</t>
@@ -638,7 +658,9 @@
           <t>Le Komsomol dans la littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1945 : Alexandre Fadeïev, La Jeune Garde,
 1997 : Alexandre Soljenitsyne, Nos jeunes.</t>
@@ -669,9 +691,11 @@
           <t>Le Komsomol dans la musique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Les Komsomols vont de l'avant, 1949 : Dmitri Chostakovitch, Le Chant des forêts (en russe : Песнь о лесах)[4].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les Komsomols vont de l'avant, 1949 : Dmitri Chostakovitch, Le Chant des forêts (en russe : Песнь о лесах).</t>
         </is>
       </c>
     </row>
@@ -699,7 +723,9 @@
           <t>Le Komsomol dans la peinture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">1949 : Sergei Grigoriev, Admission au Komsomol, huile sur toile, musée national d'art d'Ukraine, Kiev.
 			Timbre du XVIe congrès du Komsomol (1970).
